--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77169.60149959782</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77169.60149959782</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958826098.3666005</v>
+        <v>35661496.38540858</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10383.69588876404</v>
+        <v>871699.8185630441</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19777.31008905567</v>
+        <v>1573522.068683062</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29168.09237938722</v>
+        <v>2275344.318803082</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38761.44620659242</v>
+        <v>2976463.145272311</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48354.74698587984</v>
+        <v>3677581.97174154</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57948.10081308502</v>
+        <v>4378700.798210768</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67541.4428923932</v>
+        <v>5079819.624679992</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77134.74367168066</v>
+        <v>5780938.451149216</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86728.09749888585</v>
+        <v>6482057.277618441</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96321.39827817328</v>
+        <v>7183176.104087666</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105914.7521053785</v>
+        <v>7884294.930556891</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115508.0528846659</v>
+        <v>8585413.757026119</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125101.3856097274</v>
+        <v>9286532.583495354</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134694.7394369326</v>
+        <v>9987651.409964588</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144288.0932641379</v>
+        <v>10688770.23643382</v>
       </c>
     </row>
   </sheetData>
